--- a/500all/speech_level/speeches_CHRG-114hhrg94838.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94838.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412294</t>
   </si>
   <si>
-    <t>Cynthia M. Lummis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lummis. Without objection, the Chair is authorized to declare a recess at any time.    Good afternoon and welcome to the first hearing for the new Subcommittee on Interior of the Oversight and Government Reform Committee.    I am pleased to be holding this hearing on the impact on the American people of three proposed EPA rules.    Over the last year, the EPA has issued rules that are unprecedented in scope and among the most expensive in history. This overreach will impact families and businesses across the country.    The first rule we will examine is the redefinition of the term waters of the United States under the Clean Water Act. Despite two Supreme Court rulings that define the maximum reach of the Clean Water Act, the EPA has proposed a rule that will increase its regulatory authority far beyond current policy.    It would allow the EPA almost unconstrained access to regulate and burden landowners with endless environmental studies. Even more disturbing, the Waters of the U.S. rule still does not provide the regulatory certainty that farmers, small businesses and homeowners need.    Instead, it will result in more red tape, displace local management programs and shift limited resources away from working environmental programs.    We will also examine two EPA Clean Air Act rules that would fundamentally alter the relationship between States and the Federal Government. These rules would result in massive consumer electricity price increases and trillions of dollars in lost economic activity.    These rules are particularly damaging to my home State of Wyoming where we produce over 40 percent of the Nation's coal. They would force the retirement of coal power plants across the country, significantly increasing electricity and natural gas prices and threatens the reliability of the electric grid.    The first of these air regulations is called the Clean Power Plan. This proposed rule would require the regulation of existing power plants and unconstitutionally expand EPAs authority into the management of States energy generation.    It does this through so-called beyond the fence measures that regulate more than just power plants. These measures would mandate energy efficiency requirements on individual households. Compliance costs of the Clean Power Plan could be as high as $479 billion by 2030 and 43 States would face double digit electric price increases.    This massive cost comes with extremely limited benefits and violates the principles of federalism.    The second regulation we will examine is the EPAs proposal to update the air quality standards for ground level ozone. This benign sounding rule is actually widely considered to be the most expansive and expensive rule in the history of the United States.    Independent experts estimate the total possible cost of the rule at $1.7 trillion and 1.4 million job equivalence lost per year. This rule is so burdensome that some national parks, the Nation's most pristine environments, will be found to violate the new standards.    Today, we will hear from two State Attorney Generals, who will explain the impact these rules will have on the States. They will also discuss the EPAs utter lack of consultation with Native communities despite clear legal requirements.    We will also hear from two economists who raise significant questions about EPAs cost estimates. Just as importantly, these economists will also testify that the EPA is systematically overestimating the benefits of these rules by double counting benefits from other rules, ignoring basic accounting practices and projecting benefits out hundreds of years.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412638</t>
   </si>
   <si>
-    <t>Brenda L. Lawrence</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lawrence. It is an honor to be a Member of Congress and to sit with the leadership that we have as the Chair for this committee.    Thank you, Madam Chairwoman. I want to thank you for holding this hearing.    I want to thank our witnesses for their testimony today.    In a special message to Congress in 1970, President Nixon stated: ``As concern with the condition of our physical environment has intensified, it has become increasingly clear that we need to know more about the total environment, land, water and air.'' Indeed, the present government structure for dealing with environmental pollution often defies effective and concerted efforts.    In proposing that the Environmental Protection Agency be set up as a separate, new agency, ``I am making an exception to one of my own principles that as a matter of effective and orderly administration, additional new, independent agencies normally should not be created. Because environmental protection cuts across so many jurisdictions and because arresting environmental deterioration is of great importance to the quality of life in our country and the world, I believe that in this case, a strong, independent agency is needed.''    I want to start by saying that the EPA was not established to be red or blue. It was established to be green. It was established to help us protect our environment, our citizens and our children.    First, I would like to address the Clean Water Act which has been successful in past years ensuring that Americans have clean and safe water. Those of us who have been involved and informed know that there are some challenges across our country that are stepping up now and that we need to address.    I believe we all agree that clean water is vital to each of us for our drinking supply, for safe places to swim, for healthy fish, for growing crops, for beverage manufacturing, for energy generation and for a host of other uses.    The proposed EPA rule would improve the process for determining what types of water are and are not covered by the Clean Water Act. Contrary to the claim of detectors, the rule would clarify protection for streams and wetlands that form the foundation of the Nation's water resources.    It will not result in an expansion of Federal authority. Only waters that have been historically covered by the Clean Water Act are covered by the rule.    Turning our attention to the dangers of ozone exposure is equally important. More than 1,000 new studies demonstrate the health and environment harms of ozone. Exposure can cause difficulty breathing and airway inflammation. Ozone exposure is likely to cause permanent death from lung disease.    Children often suffer from a disproportionate burden of ozone related health impacts because their lungs and other organs are still developing. Nearly 26 million people have asthma in the United States, including 7.1 million children.    Fortunately over 40 years ago, Congress passed the Clean Air Act to protect public health and the environment.    Recently, EPA proposed new national air quality standards for ozone to lower the ozone in the atmosphere from 75 ppb to a range of 65 to 70 ppb by the year 2030. The Clean Power Plan has also been proposed in order to limit the amount of carbon pollution power plants will emit. Likewise, the Waters of the United States rule was proposed to clarify which bodies of water are or are not covered by the Clean Water Act.    History tells us that environmental regulations do not cause an economic calamity. In fact, in the past 40 years, the CDP has increased by 212 percent since the Clean Air and Clean Water Acts were enacted.    Clean air pollutions have decreased by 70 percent. Instead of killing jobs, as some opponents have claimed, the pollution control industry has generated more than $300 billion in revenue and $44 billion in exports and supported 1.5 million jobs.    None of the inflated costs of implementing these laws ever materialized. Industry innovation improved and thrived in response to new demands.    In closing, there have been numerous processes in the past few decades to clean up the air and water but more work is necessary to adequately protect public health from ozone, excessive carbon dioxide and water pollution and to mitigate the efforts of climate change.    I hope that we look at this industry and recognize the oppositions of some industries based on really scare mongering. History shows us that cleaning the air and water are both good for public health, good for our economy and good for our country.    Thank you.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chaffetz. Thank you. I thank you for being the chairwoman of this committee. We reconfigured this to give some focus not only between the Department of Interior but also the Forest Service, the Department of Energy and the EPA so that we, as the oversight committee, can look at the far reaching breadth rather than just have it siloed in one committee or another.    I appreciate all the members who will participate on these panels and in all these discussions.    I too am from the intermountain west. We are proud neighbors of Wyoming. Where we produce a lot of this energy. We have an abundance of coal, natural gas and oil shale. Yet every time I turn around, there seems to be some reason, some other implication that is put out there by the EPA.    We love the west; we love our mountains, our air, our water and our streams. I do think there is a role to create some bounds and rules of the road, but I do worry about how severe the EPA is in its approach.    It wasn t too long ago in this very room we found out that the person heading up Air and Water Quality, one of the most senior people at the EPA, we had a hearing, he had not shown up for work in years. He was convicted of fraud and is in jail. He had to pay hundreds of thousands of dollars in restitution to the government because he was telling his senior leadership that he was a CIA agent and that he was overseas in Afghanistan.    It begs the question, if he was so fraudulent that he actually went to jail, what about all the regulations that came into place for air and water quality during that time. It does beg the question.    We have had the Inspector General here talking about the problems they have with sexual harassment in the senior-most offices. We have had people here talking about the fact that they cannot seem to fire anyone and move them out the door.    Time and time again, the EPA has routinely been here talking about all these problems with mismanagement and waste. Yet, they want to go into our States and start telling people how to conduct their business.    Again, we need clean coal and good energy. I buy that. Let us also understand that there are very real impacts upon economies, jobs and peoples livelihoods. Their job role and responsibility is not to just shutdown everyone.    I really appreciate the panel who I think can give us a much broader scope and understanding of all the ramifications that come into place when you have the EPA come in. I appreciate the Attorney Generals who have taken time out of their busy schedule to give us their perspective from across the United States.    I look forward to some robust discussions today. I have great optimism for this panel and this subcommittee moving forward.    With that, I yield back.</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Fox</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Fox. Chairman Lummis, Congresswoman Lawrence and members of the committee, thank you for inviting me to speak here today.    I am Tim Fox, the Attorney General of Montana. Without hopefully offending any of the other members of the committee, Congresswoman Lawrence, you will be glad to hear that I am Detroit Tigers fan--go Tigers.    I will speak briefly this morning of my concerns with three regulatory initiatives by the United States Environmental Protection Agency. Two are rulemaking proposals and one involves an unprecedented action by EPA to exercise a preemptive veto of a Section 404 permit.    In a proposal published in the Federal Register on April 21, 2014, EPA proposes to amend the definition of ``waters of the U.S.'' in such a way that would extend the reach of the Clean Water Act to virtually all interState and intraState waters and all lands which could potentially affect such waters.    Montana is, for the most part, a headwater State, blessed with waters of exceptional quality. The people of Montana have taken steps to fully protect that priceless resource. Those steps begin with our State Constitution which provides comprehensive protections for our waters.    We have implemented those constitutional safeguards through the 1971 Montana Water Quality Act and regulations to implement the Act. Based on its Water Quality Act, Montana sought and was granted primacy to implement the Clean Water Act s permit system in the State but even beyond the permit protections, the Montana DEQ has broad authority to prevent pollution.    The point is that Montana has taken primary responsibility for its land and waters as was assumed by Congress when it enacted the Clean Water Act. There is no justification for extending the reach of the Clean Water Act in our State.    The overreach impinges indirectly on our State's sovereignty and offends Congress Stated intention in the Clean Water Act to recognize, protect and preserve the primary rights of the States to manage their lands and water resources.    The second problematic proposed rule is EPAs June 18, 2014 existing source proposal under Section 111(d) of the Clean Air Act. I join the Attorneys General of 16 other States in comments on that proposal, but I also filed separate comments with Chairman Darrin Old Coyote of the Crow Nation. I want to talk just a minute about those comments.    I grew up Hardin, Montana on the Crow Reservation and developed a deep appreciation both for the Crow people and the problems they faced and continue to face. The Crow Nation has huge, undeveloped coal reserves and one operating mine, the Absaloka Mine which provides two-thirds of the Crow Nation's annual non-Federal budget and is by far the largest private employer on the reservation.    Unfortunately, one of the very likely effects of EPA's existing source rule would be to kill the market for the coal produced by the Absaloka Mine which is nearly all sold to Minnesota utilities. This will in turn kill the mine, in turn causing drastic loss of services and employment on the Crow Reservation.    EPA has a legal duty under Executive Order 13175 to ensure meaningful and timely input by tribal officials in the development of regulatory proposals that affect tribes. Aside from two ``Dear Tribal Leader'' form letters, nobody from the agency contacted the Crow Nation directly in a government to government contact as required by Executive Order 13175 and the Presidential Memo which implements the Order.    Given the consequences of the proposed rule to the Crow Nation, this doesn't seem a sufficient effort on the part of     Third and last, the matter I want to address today is EPA's involvement and their actions relating to the proposed Pebble Mine project in Alaska.    In 1979, the EPA promulgated a rule providing the Administrator could prohibit the specification of a site under Section 404(c) before a permit application has been submitted to or approved by the Corps or a State.    This authority up to now has never been used to issue a preemptive veto. However, last year, the EPA proposed to use the authority to issue a preemptive veto before any formal application for a permit had been prepared or filed by the developer of the Pebble project.    As Montana's chief legal officer, it greatly concerns me that we can see a situation in our State where the Administrator of a Federal agency preemptively vetoes a development proposal before we have an opportunity to receive, review and comment on an application for permit.    Chairman Lummis, Congresswoman Lawrence and members of the committee, thank you again for giving me some time here today to speak on behalf of the people of Montana. I have submitted a more comprehensive written testimony for your consideration.    I am happy to answer any questions you may have. Thank you.</t>
   </si>
   <si>
@@ -106,18 +94,12 @@
     <t xml:space="preserve">    Ms. Lummis. That was one of my favorite places. I have pictures at the Purple Cow.    The chair now recognizes the Attorney General of the State of Arkansas, Ms. Rutledge, for 5 minutes.</t>
   </si>
   <si>
-    <t>Rutledge</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Rutledge. Chairman Lummis, Ranking Member Lawrence and members of the committee, thank you for inviting me to speak with you all today.    My name is Leslie Rutledge, Arkansas Attorney General. I am here today to give you a sense of our State, one that is rich in natural heritage and is known across the Nation as the natural State for rolling hills, dense woodlands, miles of rivers and lakes and how they will be impacted by overreaching regulations of the Environmental Protection Agency.    Specifically, the EPA exceeds its legal authority in three recently proposed rules: the Clean Power Plan, more stringent ground level ozone standards and changes to the definitions of the waters of the United States.    As Attorney General, I represent the interests of Arkansas utility rate payers. These are hardworking Arkansans, some who own their own small businesses, some run multigenerational family farms from Fayetteville to Warren to Texarkana to Jonesboro, and all points in between. I have heard grave concern about the EPA's proposed Clean Power Plan.    The rule requires Arkansas to meet an almost 45 percent reduction in carbon emissions from electric generating units by 2030. This is the sixth highest rate of reduction in the Nation imposed upon a State that ranks 46th in per capita income.    This is a rule that the EPA does not have the legal authority to issue. The EPA regulates coal-fired power plants such as the one in Independence County, where I grew up, under Section 112 of the Clean Air Act, not Section 111(b).    The law cannot be clearer. It specifically prohibits the EPA from invoking 111(b) where the source category is regulated under Section 112. The proposed rule mandates what each State must achieve rather than providing guidelines and procedures for States to use. This is a serious overreach of the EPA's authority and different from the implementation of any other limits set under the Clean Air Act.    My opposition to this rule begs the question whether I am for clean air. I certainly am and I can confidently say that all Arkansans are in favor of clean air.    The rule goes beyond the EPA's authority to regulate air pollution. It imposes a misguided, national energy policy and seeks to control the State's regulation of energy generation and usage.    Also, under the Clean Air Act, the EPA has proposed unnecessarily stringent ground level ozone standards. The proposed rule reduces the current standard of 75 ppm to somewhere between 60 to 70 ppm. A decrease to 60 ppm will have a devastating effect on Arkansas. At that level, almost all of Arkansas would likely be in non-attainment.    Anyone who has visited Arkansas would be hard pressed to believe that our beautiful mountains have a smog problem. Years of nonattainment would directly set back economic recovery that we have achieved in the past few years.    Likewise, the EPA's attempt to clarify the definition of the waters of the U.S. is so expansive that it would likely control land use activities over most of the United States. As Arkansas Attorney General, this is a major concern for me because this would drastically impact our farmers and ranchers.    Rather than clarifying, the rule complicates current law. The process for determining jurisdiction becomes a maize for both regulators and for the public to navigate. Arkansas' agricultural community would be left with increased uncertainty over the Clean Water Act.    Agriculture is essential to our economy. According to the Arkansas Farm Bureau, agriculture provides $16 billion annually and one out of every six jobs in the State.    While the EPA and the U.S. Army Corps of Engineers have repeatedly offered verbal assurances that agriculture need not worry about the scope of the proposed definition of waters of the United States, farmers in Arkansas worry because of the actions of agencies, not their words.    For example, in 2014, the Corps took action against a Tennessee row crop farm determining that a field was considered waters of the U.S. Arkansas farmers worry that every day activities such as plowing and applying fertilizer and pesticides will subject them, just like our neighboring State of Tennessee, to Federal jurisdiction under the Clean Water Act.    While each of these rules would cause great harm to Arkansas on their own, the cumulative effect cannot be overStated. This Administration is intent on following an agenda that ignores the plain language passed by Congress and has created a perfect storm of Federal regulation that will result in economic disaster for Arkansas.    Arkansans believe in protecting our environment. We take great pride in being the natural State and take pride in supplying the world with food and growing jobs in our State.    I thank Chairman Lummis, Ranking Member Lawrence and other members of the committee for the opportunity to address you all today. I welcome your questions. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Lummis. Thank you, Attorney General Rutledge.    Before I recognize Dr. Smith, it appears we may be interrupted by votes. We will hear the entirety of Dr. Smith's opening Statement for 5 minutes. If votes have been called, then we will take a break for about 25 minutes while the members of the committee vote and return to hear the opening Statements of Drs. Harrison and Tierney.    With that, Dr. Smith, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Smith. Thank you, Chairwoman Lummis, Ranking Member Lawrence and other members of the committee. Thank you for the invitation to speak at this hearing.    I am Anne Smith of NERA Economic Consulting. My testimony today is my own and does not represent the position of my company or any of my clients.    This hearing is about the impacts of EPA regulations. I will address some insights and issues about the comparisons of the benefits and the costs of two major regulations EPA is presently proposing.    The first, the Clean Power Plan, is to reduce electricity sector emissions of carbon dioxide. The other is a tightening of the ozone national ambient air quality standard, NAAQS.    My colleague to my left, Dr. Harrison, will be testifying on high costs of these regulations and analyses we have done together at NERA. I agree with all that he will have to say.    I am going to focus on EPA's own estimates of the benefits of these two rules and how they compare to costs. For these comparisons, I will only use EPA's own lower cost estimates.    My bottom line is that EPA's analyses of both rules offer a far weaker case that the benefits of those rules will exceed their costs than one would believe from listening to EPA's press releases or reading the regulatory impact analyses.    First, for the Clean Power Plan, EPA's comparisons of the costs and benefits of the CPP falsely suggest that climate benefits will exceed costs during the period of implementation, 2020 to 2030.    When correctly presented, EPA's own estimates reveal that it finds the CPP will cost more than $180 billion by 2030, in present value terms and that the present value of its cumulative climate benefits are not expected to exceed that $180 billion of cost until more than 100 years later.    Furthermore, EPA's estimates of those climate benefits are global benefits, all countries of the world and the benefits to the U.S., including future U.S. generations, not just current U.S. generations, are not expected to exceed that rule's costs, even under the most pessimistic projections of potential climate impacts that EPA is using in its regulatory impact analysis.    I will now turn to the proposed ozone NAAQS revision. At tightening of the current ozone NAAQS could be much more expensive than the proposed Clean Power Plan. Yet, for this rule, EPA does not estimate this rule's ozone-related benefits will exceed its costs, even using EPA's own cost estimates.    How then can EPA claim that the benefits of the ozone NAAQS will ``outweigh it's cost by as much as three to one?'' The answer is, they pad the benefits estimates with so-called co-benefits. Co-benefits are estimates of benefits based on projections of coincidental changes in a completely different pollutant than ozone, a completely different pollutant than the target of the regulation.    These are coincidental reductions projected to occur in fine particulate matter, PM2.5, which are the subject of their own regulatory coverage under NAAQS.    EPA has a long tradition of making rules appear to have benefits that exceed their costs by adding such massive doses of co-benefits from PM2.5. In fact, these co-benefits also appear in the benefit cost analysis for the CPP, the climate rule we are talking about.    The thousands of premature deaths and the hundreds of thousands of avoided asthma attacks that EPA has claimed for that climate rule are based on PM2.5 co-benefits. They have nothing to do with climate benefit estimates whatsoever.    I have written and testified previously on the problems with what I have called EPA's co-benefits habit. I reference the writing of that discussed in my written testimony.    To summarize briefly, even the Administrator s Statements about the health benefits of PM2.5 imply that these co-benefits may not exist at all. That is because they are based on changes in PM2.5 concentrations that are already below the protected level of the PM2.5 ambient air quality standard.    But, even if they did exist, they should not be used to promote regulations that have nothing to do with PM2.5 such as these two EPA proposals I have talked about which are intended not to reduce PM2.5 but to deal with climate impacts and ozone exposures.    Using co-benefits in this way is a recipe for creating economically inefficient policies for managing those purported risks of PM2.5 while it also misleads the public on the need for more costly regulations of these other two pollutants.    Thank you very much for your attention. I will answer questions later if you are interested.</t>
   </si>
   <si>
@@ -127,9 +109,6 @@
     <t xml:space="preserve">    Ms. Lummis. I thank the panel for its patience with our leave of absence to be voting on the floor.    Our next witness is Dr. Harrison. Thank you for being here. We look forward to hearing from you. The floor is yours, Dr. Harrison.</t>
   </si>
   <si>
-    <t>Harrison</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harrison. Thank you, Chairwoman Lummis and members of the subcommittee. Thank you for the opportunity to participate in today's hearings.    I am Dr. David Harrison, Jr. My testimony is my own and does not represent my company or any client.    My comments on the economic impacts of EPA regulations are based on two recent NERA studies. One related to the national ambient air quality standard for ozone and one related to EPA's proposed Clean Power Plan to reduce carbon dioxide emissions from the electric utility sector.    Both studies indicate that these two major environmental policies could have very substantial economic impacts on individual States and on the U.S. as a whole. Let me start with the ozone study.    My written testimony is based on a July 2014 study we did, but today we released an update that reflects EPA's November 2014 ozone proposal. I believe you have received copies of that. I would like to request that it be entered into the record.</t>
   </si>
   <si>
@@ -142,9 +121,6 @@
     <t xml:space="preserve">    Ms. Lummis. Thank you for your testimony, Dr. Harrison.    I would now like to recognize Dr. Tierney for 5 minutes. Welcome, Dr. Tierney.</t>
   </si>
   <si>
-    <t>Tierney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Tierney. Thank you so much, Chairman Lummis, Ranking Member Lawrence and subcommittee members. It is very nice to be here today. Thank you very much.    As you know, the EPA has responsibility under the Clean Air Act and the Clean Water Act to protect the public from harmful discharges of pollutants into the Nation's air and waterways.    In the decade since these Federal laws were enacted, they have led to improvements in the public s health and protected the Nation's natural resources on which our entire economy depends. As scientific information has evolved over time, as has technology, so has the administration of these Federal laws.    I am a former Environmental Secretary and energy regulator in the State of Massachusetts where I was appointed by both Republicans and Democrats. I have direct familiarity with administering Federal and State laws to protect the environment and energy markets.    Since leaving government, I have been a consultant and worked for a wide variety of clients looking at energy markets, State environmental laws, Federal environmental laws, local economies and impacts on consumers of a variety of different public policies.    The three proposed EPA regulations under discussion today are important regulations from a public health point of view, but are also important for local economies and economic development.    First, clarifying the scope of Federal jurisdictions and consistency of treatment of waterways across the Nation helps to provide appropriate signals to private actors about what they can expect when States review their economic development activities. Lack of clear rules is known to chill economic development.    Second, ensuring that ozone standards remain up to date and consistent with the evolving State of knowledge in the scientific community is critically important for public health and for local economies as well.    Economic impact analyses that fail to look at the benefits to public health are inherently inconsistent with what the ozone standard is all about, which is public health.    Third, the rest of my testimony will focus on the EPA's proposed Clean Power Plan. The EPA is required to establish emissions controls on the power sector. In doing so, the EPA has adopted a regulatory approach that offers significant flexibility to the States to fashion their own plans to control emissions from power plants in ways that work well for their economies.    Having a reliable and efficient electric industry is critically important for Americans and the U.S. economy and so is addressing carbon pollution. In that context, the EPA's proposal is critically important.    The Supreme Court has said that greenhouse gases are an air pollutant under the Clean Air Act. The American power sector represents the Nation's largest source of greenhouse gas emissions. Americans are feeling the effects of costly climate change already.    The power sector in the United States emits 1 out of every 15 tons of pollutants anywhere in the globe. It is a major source of the global warming emissions and is costly for climate change.    Equally important is assurance that the electric system is reliable and it is affordable. Fortunately, EPA's proposal allows States to adopt approaches that minimize the Clean Power Plan's cost to consumers.    In the past year, I have co-authored three reports on EPA's proposed impacts on consumers and electric system reliability. In researching the newest one of those reports, which we issued last week and which I have attached to my testimony, my colleagues and I read a significant number of the comments that have been filed on the EPA's proposal.    We found that many studies and comments incorrectly presume that the rule will be inflexibly implemented, which is opposite to the way it has been designed. The assumptions are worse case scenarios and assume that the private sector will idlely stand by as will regulators rather than doing their jobs to make sure the impacts are at least cost and that there are reliable outcomes. There is no historical basis for those sets of assumptions.    The issues will be solved by a dynamic interplay of actions by regulators and market participants with solutions proceeding in parallel. Indeed, this dynamic interplay is the reason why a recent survey of 400 utility executives in the United States said they support the proposed Clean Power Plan and the emissions targets.    Finally, the electric industry is undergoing major change as we know. Those changes are from the shale gas revolution, its price pressure on coal in many parts of the country, the domestic supply of renewable energy in vast parts of the United States, aging infrastructure and a significant growth in energy productivity.    These shifts are underway and are causing enormous changes in the industry. Had the EPA never proposed the Clean Power Plan, we would be seeing many and the same kinds of directions we are seeing in the U.S. electric sector in any event.    Thank you very much.</t>
   </si>
   <si>
@@ -181,9 +157,6 @@
     <t xml:space="preserve">    Ms. Lummis. I thank the panel.    The Chair now recognizes the gentleman from Pennsylvania, Mr. Cartwright, for 5 minutes.</t>
   </si>
   <si>
-    <t>Cartwright</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cartwright. Thank you, Madam Chairwoman.    Dr. Harrison, thank you for appearing before us today. I had a couple of questions for you.    You said you are appearing today expressing your own opinions and those of nobody else, is that correct?</t>
   </si>
   <si>
@@ -268,9 +241,6 @@
     <t>412650</t>
   </si>
   <si>
-    <t>Steve Russell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Madam Chair.    Dr. Tierney, are you aware that over 4,000 American eagles, red tail hawks, American kestrels and burrowing owls are killed every year by wind turbines?</t>
   </si>
   <si>
@@ -334,9 +304,6 @@
     <t>412659</t>
   </si>
   <si>
-    <t>Stacey E. Plaskett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Plaskett. Good afternoon and thank you very much, Madam Chair.    Thank you, testifiers for being here.    I think it is very interesting and should be noted for the record that the EPA is not here for this hearing because we are in a proposed rulemaking position and therefore, it would be inappropriate for them at this time to testify on this matter. I think we need to reflect on the fact these are proposals as yet and not, in fact, rules.    It appears this is not a new issue and there is a lot of rhetoric in the industry right now about the EPA's proposed Clean Water Power Plan, the ozone regulations killing jobs, and excessively raising industry compliance costs. Ms. Rutledge talked about a perfect storm.    These sky is falling claims don't appear to be new. As a matter of fact, I have from June 2014, which I would like to submit to the record, a fact sheet prepared under Ranking Member Henry Waxman which gives facts on the Clean Air track record and pollution reductions.    Since its adoption in 1970, there has been a reduction in key air pollutants by over 70 percent while the economy has more than tripled in size.    Dr. Tierney, do you think the economic predictions currently used by the industry regarding clean power plant and ozone rules are reasonable?</t>
   </si>
   <si>
@@ -382,9 +349,6 @@
     <t>412397</t>
   </si>
   <si>
-    <t>Paul A. Gosar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Gosar. Thank you, Madam Chair.    Dr. Tierney, is CO2 a pollutant?</t>
   </si>
   <si>
@@ -548,9 +512,6 @@
   </si>
   <si>
     <t>412608</t>
-  </si>
-  <si>
-    <t>Gary J. Palmer</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Madam Chair.    Dr. Tierney, I want to ask you some questions about how you intend to enforce, say, the water rule, how aggressive you are going to be on that?</t>
@@ -1192,11 +1153,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1218,11 +1177,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1242,13 +1199,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1270,11 +1225,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1294,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1322,11 +1273,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1348,11 +1297,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1372,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1400,11 +1345,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1424,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1452,11 +1393,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1476,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1504,11 +1441,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1528,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1556,11 +1489,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1582,11 +1513,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1606,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1634,11 +1561,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1658,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1686,11 +1609,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1710,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1738,11 +1657,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1762,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1790,11 +1705,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1814,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1842,11 +1753,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1866,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1894,11 +1801,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1918,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1946,11 +1849,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1970,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1998,11 +1897,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2022,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2048,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2074,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2100,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2126,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2152,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2178,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2204,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2230,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
         <v>55</v>
-      </c>
-      <c r="H42" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2256,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2282,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2308,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2334,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2360,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2386,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2412,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2438,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2464,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2490,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2516,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2542,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2568,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2594,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2620,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2646,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2672,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2698,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2724,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2750,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2778,11 +2617,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2802,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>83</v>
-      </c>
-      <c r="G64" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2828,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2854,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>83</v>
-      </c>
-      <c r="G66" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2880,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2906,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>83</v>
-      </c>
-      <c r="G68" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2932,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2958,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2984,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3010,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
+        <v>74</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
         <v>83</v>
-      </c>
-      <c r="G72" t="s">
-        <v>84</v>
-      </c>
-      <c r="H72" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3036,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3062,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>83</v>
-      </c>
-      <c r="G74" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3088,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3114,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>83</v>
-      </c>
-      <c r="G76" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3140,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3166,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>83</v>
-      </c>
-      <c r="G78" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3192,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3218,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>83</v>
-      </c>
-      <c r="G80" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3244,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3270,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>83</v>
-      </c>
-      <c r="G82" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3298,11 +3097,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3322,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
-      </c>
-      <c r="G84" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3348,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3374,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
-      </c>
-      <c r="G86" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3400,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3426,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>105</v>
-      </c>
-      <c r="G88" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3452,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3478,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
-      </c>
-      <c r="G90" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3504,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3530,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>105</v>
-      </c>
-      <c r="G92" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3556,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" t="s">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3582,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
-      </c>
-      <c r="G94" t="s">
+        <v>95</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
         <v>106</v>
-      </c>
-      <c r="H94" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3608,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3634,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>105</v>
-      </c>
-      <c r="G96" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3662,11 +3433,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3686,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>121</v>
-      </c>
-      <c r="G98" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3712,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>24</v>
-      </c>
-      <c r="G99" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3738,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>121</v>
-      </c>
-      <c r="G100" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3764,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G101" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3790,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>121</v>
-      </c>
-      <c r="G102" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3816,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3842,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>121</v>
-      </c>
-      <c r="G104" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3868,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3894,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>121</v>
-      </c>
-      <c r="G106" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3920,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>24</v>
-      </c>
-      <c r="G107" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3946,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
+        <v>110</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
         <v>121</v>
-      </c>
-      <c r="G108" t="s">
-        <v>122</v>
-      </c>
-      <c r="H108" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3972,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
-      </c>
-      <c r="G109" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3998,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>121</v>
-      </c>
-      <c r="G110" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4024,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G111" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4050,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>121</v>
-      </c>
-      <c r="G112" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4076,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
-      </c>
-      <c r="G113" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4102,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>121</v>
-      </c>
-      <c r="G114" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4128,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>24</v>
-      </c>
-      <c r="G115" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4154,13 +3887,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>121</v>
-      </c>
-      <c r="G116" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4180,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>24</v>
-      </c>
-      <c r="G117" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4206,13 +3935,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>121</v>
-      </c>
-      <c r="G118" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4232,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>24</v>
-      </c>
-      <c r="G119" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4258,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>121</v>
-      </c>
-      <c r="G120" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4284,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>24</v>
-      </c>
-      <c r="G121" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4310,13 +4031,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>121</v>
-      </c>
-      <c r="G122" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4336,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>24</v>
-      </c>
-      <c r="G123" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4362,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>121</v>
-      </c>
-      <c r="G124" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4388,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>24</v>
-      </c>
-      <c r="G125" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4414,13 +4127,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>121</v>
-      </c>
-      <c r="G126" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4440,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>24</v>
-      </c>
-      <c r="G127" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4466,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>121</v>
-      </c>
-      <c r="G128" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4492,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>24</v>
-      </c>
-      <c r="G129" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4518,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>121</v>
-      </c>
-      <c r="G130" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4544,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>24</v>
-      </c>
-      <c r="G131" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4570,13 +4271,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>121</v>
-      </c>
-      <c r="G132" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4596,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>24</v>
-      </c>
-      <c r="G133" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4622,13 +4319,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>121</v>
-      </c>
-      <c r="G134" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4648,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>24</v>
-      </c>
-      <c r="G135" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4674,13 +4367,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>121</v>
-      </c>
-      <c r="G136" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4700,13 +4391,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>24</v>
-      </c>
-      <c r="G137" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4726,13 +4415,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>121</v>
-      </c>
-      <c r="G138" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4752,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>24</v>
-      </c>
-      <c r="G139" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4778,13 +4463,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>121</v>
-      </c>
-      <c r="G140" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4804,13 +4487,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>24</v>
-      </c>
-      <c r="G141" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4830,13 +4511,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>121</v>
-      </c>
-      <c r="G142" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4856,13 +4535,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>24</v>
-      </c>
-      <c r="G143" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4882,13 +4559,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>121</v>
-      </c>
-      <c r="G144" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4908,13 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>24</v>
-      </c>
-      <c r="G145" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4934,13 +4607,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>121</v>
-      </c>
-      <c r="G146" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4960,13 +4631,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>24</v>
-      </c>
-      <c r="G147" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4986,13 +4655,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>121</v>
-      </c>
-      <c r="G148" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5012,13 +4679,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>24</v>
-      </c>
-      <c r="G149" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5038,13 +4703,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>121</v>
-      </c>
-      <c r="G150" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5066,11 +4729,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5090,13 +4751,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>177</v>
-      </c>
-      <c r="G152" t="s">
-        <v>178</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5116,13 +4775,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>24</v>
-      </c>
-      <c r="G153" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5142,13 +4799,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>177</v>
-      </c>
-      <c r="G154" t="s">
-        <v>178</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5168,13 +4823,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>24</v>
-      </c>
-      <c r="G155" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5194,13 +4847,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>177</v>
-      </c>
-      <c r="G156" t="s">
-        <v>178</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5220,13 +4871,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>24</v>
-      </c>
-      <c r="G157" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5246,13 +4895,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>177</v>
-      </c>
-      <c r="G158" t="s">
-        <v>178</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5272,13 +4919,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>24</v>
-      </c>
-      <c r="G159" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5298,13 +4943,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>177</v>
-      </c>
-      <c r="G160" t="s">
-        <v>178</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5324,13 +4967,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>24</v>
-      </c>
-      <c r="G161" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5350,13 +4991,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>177</v>
-      </c>
-      <c r="G162" t="s">
-        <v>178</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5376,13 +5015,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>24</v>
-      </c>
-      <c r="G163" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5402,13 +5039,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>177</v>
-      </c>
-      <c r="G164" t="s">
+        <v>165</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
         <v>178</v>
-      </c>
-      <c r="H164" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5428,13 +5063,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>24</v>
-      </c>
-      <c r="G165" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5454,13 +5087,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>177</v>
-      </c>
-      <c r="G166" t="s">
-        <v>178</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5482,11 +5113,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5506,13 +5135,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>15</v>
-      </c>
-      <c r="G168" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5532,13 +5159,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>24</v>
-      </c>
-      <c r="G169" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5558,13 +5183,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>15</v>
-      </c>
-      <c r="G170" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5584,13 +5207,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>24</v>
-      </c>
-      <c r="G171" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5610,13 +5231,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>15</v>
-      </c>
-      <c r="G172" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5636,13 +5255,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>24</v>
-      </c>
-      <c r="G173" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5662,13 +5279,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>15</v>
-      </c>
-      <c r="G174" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5690,11 +5305,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5714,13 +5327,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>24</v>
-      </c>
-      <c r="G176" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5742,11 +5353,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5766,13 +5375,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>24</v>
-      </c>
-      <c r="G178" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5794,11 +5401,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5818,13 +5423,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>24</v>
-      </c>
-      <c r="G180" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5844,13 +5447,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>24</v>
-      </c>
-      <c r="G181" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5872,11 +5473,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>12</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5896,13 +5495,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>15</v>
-      </c>
-      <c r="G183" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5922,13 +5519,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>24</v>
-      </c>
-      <c r="G184" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5948,13 +5543,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>15</v>
-      </c>
-      <c r="G185" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5974,13 +5567,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>24</v>
-      </c>
-      <c r="G186" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6000,13 +5591,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>15</v>
-      </c>
-      <c r="G187" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6028,11 +5617,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6052,13 +5639,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>121</v>
-      </c>
-      <c r="G189" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6078,13 +5663,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>24</v>
-      </c>
-      <c r="G190" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6104,13 +5687,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>121</v>
-      </c>
-      <c r="G191" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6130,13 +5711,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>24</v>
-      </c>
-      <c r="G192" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6156,13 +5735,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>121</v>
-      </c>
-      <c r="G193" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6182,13 +5759,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>24</v>
-      </c>
-      <c r="G194" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6208,13 +5783,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>121</v>
-      </c>
-      <c r="G195" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6234,13 +5807,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>24</v>
-      </c>
-      <c r="G196" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6260,13 +5831,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>121</v>
-      </c>
-      <c r="G197" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6286,13 +5855,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>24</v>
-      </c>
-      <c r="G198" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6312,13 +5879,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>121</v>
-      </c>
-      <c r="G199" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6338,13 +5903,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>24</v>
-      </c>
-      <c r="G200" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6364,13 +5927,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>121</v>
-      </c>
-      <c r="G201" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6390,13 +5951,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>24</v>
-      </c>
-      <c r="G202" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6416,13 +5975,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>121</v>
-      </c>
-      <c r="G203" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6442,13 +5999,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>24</v>
-      </c>
-      <c r="G204" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6468,13 +6023,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>121</v>
-      </c>
-      <c r="G205" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6494,13 +6047,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>24</v>
-      </c>
-      <c r="G206" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6520,13 +6071,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>121</v>
-      </c>
-      <c r="G207" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6546,13 +6095,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>24</v>
-      </c>
-      <c r="G208" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6572,13 +6119,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>121</v>
-      </c>
-      <c r="G209" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6598,13 +6143,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>24</v>
-      </c>
-      <c r="G210" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6624,13 +6167,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>121</v>
-      </c>
-      <c r="G211" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6650,13 +6191,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>24</v>
-      </c>
-      <c r="G212" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6676,13 +6215,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>121</v>
-      </c>
-      <c r="G213" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6702,13 +6239,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>24</v>
-      </c>
-      <c r="G214" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6728,13 +6263,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>121</v>
-      </c>
-      <c r="G215" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6754,13 +6287,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>24</v>
-      </c>
-      <c r="G216" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6780,13 +6311,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>121</v>
-      </c>
-      <c r="G217" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6808,11 +6337,9 @@
       <c r="F218" t="s">
         <v>11</v>
       </c>
-      <c r="G218" t="s">
-        <v>12</v>
-      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6832,13 +6359,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>24</v>
-      </c>
-      <c r="G219" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6858,13 +6383,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>24</v>
-      </c>
-      <c r="G220" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6884,13 +6407,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>24</v>
-      </c>
-      <c r="G221" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6910,13 +6431,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>24</v>
-      </c>
-      <c r="G222" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6936,13 +6455,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>24</v>
-      </c>
-      <c r="G223" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6964,11 +6481,9 @@
       <c r="F224" t="s">
         <v>11</v>
       </c>
-      <c r="G224" t="s">
-        <v>12</v>
-      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6988,13 +6503,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>24</v>
-      </c>
-      <c r="G225" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7016,11 +6529,9 @@
       <c r="F226" t="s">
         <v>11</v>
       </c>
-      <c r="G226" t="s">
-        <v>12</v>
-      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7040,13 +6551,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>24</v>
-      </c>
-      <c r="G227" t="s">
-        <v>55</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7068,11 +6577,9 @@
       <c r="F228" t="s">
         <v>11</v>
       </c>
-      <c r="G228" t="s">
-        <v>12</v>
-      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7092,13 +6599,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>105</v>
-      </c>
-      <c r="G229" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7118,13 +6623,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>24</v>
-      </c>
-      <c r="G230" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7144,13 +6647,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>105</v>
-      </c>
-      <c r="G231" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7170,13 +6671,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>24</v>
-      </c>
-      <c r="G232" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7196,13 +6695,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>105</v>
-      </c>
-      <c r="G233" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7224,11 +6721,9 @@
       <c r="F234" t="s">
         <v>11</v>
       </c>
-      <c r="G234" t="s">
-        <v>12</v>
-      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7250,11 +6745,9 @@
       <c r="F235" t="s">
         <v>11</v>
       </c>
-      <c r="G235" t="s">
-        <v>12</v>
-      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7274,13 +6767,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>15</v>
-      </c>
-      <c r="G236" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7300,13 +6791,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>24</v>
-      </c>
-      <c r="G237" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7328,11 +6817,9 @@
       <c r="F238" t="s">
         <v>11</v>
       </c>
-      <c r="G238" t="s">
-        <v>12</v>
-      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94838.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94838.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412294</t>
   </si>
   <si>
+    <t>Lummis</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Lummis. Without objection, the Chair is authorized to declare a recess at any time.    Good afternoon and welcome to the first hearing for the new Subcommittee on Interior of the Oversight and Government Reform Committee.    I am pleased to be holding this hearing on the impact on the American people of three proposed EPA rules.    Over the last year, the EPA has issued rules that are unprecedented in scope and among the most expensive in history. This overreach will impact families and businesses across the country.    The first rule we will examine is the redefinition of the term waters of the United States under the Clean Water Act. Despite two Supreme Court rulings that define the maximum reach of the Clean Water Act, the EPA has proposed a rule that will increase its regulatory authority far beyond current policy.    It would allow the EPA almost unconstrained access to regulate and burden landowners with endless environmental studies. Even more disturbing, the Waters of the U.S. rule still does not provide the regulatory certainty that farmers, small businesses and homeowners need.    Instead, it will result in more red tape, displace local management programs and shift limited resources away from working environmental programs.    We will also examine two EPA Clean Air Act rules that would fundamentally alter the relationship between States and the Federal Government. These rules would result in massive consumer electricity price increases and trillions of dollars in lost economic activity.    These rules are particularly damaging to my home State of Wyoming where we produce over 40 percent of the Nation's coal. They would force the retirement of coal power plants across the country, significantly increasing electricity and natural gas prices and threatens the reliability of the electric grid.    The first of these air regulations is called the Clean Power Plan. This proposed rule would require the regulation of existing power plants and unconstitutionally expand EPAs authority into the management of States energy generation.    It does this through so-called beyond the fence measures that regulate more than just power plants. These measures would mandate energy efficiency requirements on individual households. Compliance costs of the Clean Power Plan could be as high as $479 billion by 2030 and 43 States would face double digit electric price increases.    This massive cost comes with extremely limited benefits and violates the principles of federalism.    The second regulation we will examine is the EPAs proposal to update the air quality standards for ground level ozone. This benign sounding rule is actually widely considered to be the most expansive and expensive rule in the history of the United States.    Independent experts estimate the total possible cost of the rule at $1.7 trillion and 1.4 million job equivalence lost per year. This rule is so burdensome that some national parks, the Nation's most pristine environments, will be found to violate the new standards.    Today, we will hear from two State Attorney Generals, who will explain the impact these rules will have on the States. They will also discuss the EPAs utter lack of consultation with Native communities despite clear legal requirements.    We will also hear from two economists who raise significant questions about EPAs cost estimates. Just as importantly, these economists will also testify that the EPA is systematically overestimating the benefits of these rules by double counting benefits from other rules, ignoring basic accounting practices and projecting benefits out hundreds of years.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412638</t>
   </si>
   <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Lawrence. It is an honor to be a Member of Congress and to sit with the leadership that we have as the Chair for this committee.    Thank you, Madam Chairwoman. I want to thank you for holding this hearing.    I want to thank our witnesses for their testimony today.    In a special message to Congress in 1970, President Nixon stated: ``As concern with the condition of our physical environment has intensified, it has become increasingly clear that we need to know more about the total environment, land, water and air.'' Indeed, the present government structure for dealing with environmental pollution often defies effective and concerted efforts.    In proposing that the Environmental Protection Agency be set up as a separate, new agency, ``I am making an exception to one of my own principles that as a matter of effective and orderly administration, additional new, independent agencies normally should not be created. Because environmental protection cuts across so many jurisdictions and because arresting environmental deterioration is of great importance to the quality of life in our country and the world, I believe that in this case, a strong, independent agency is needed.''    I want to start by saying that the EPA was not established to be red or blue. It was established to be green. It was established to help us protect our environment, our citizens and our children.    First, I would like to address the Clean Water Act which has been successful in past years ensuring that Americans have clean and safe water. Those of us who have been involved and informed know that there are some challenges across our country that are stepping up now and that we need to address.    I believe we all agree that clean water is vital to each of us for our drinking supply, for safe places to swim, for healthy fish, for growing crops, for beverage manufacturing, for energy generation and for a host of other uses.    The proposed EPA rule would improve the process for determining what types of water are and are not covered by the Clean Water Act. Contrary to the claim of detectors, the rule would clarify protection for streams and wetlands that form the foundation of the Nation's water resources.    It will not result in an expansion of Federal authority. Only waters that have been historically covered by the Clean Water Act are covered by the rule.    Turning our attention to the dangers of ozone exposure is equally important. More than 1,000 new studies demonstrate the health and environment harms of ozone. Exposure can cause difficulty breathing and airway inflammation. Ozone exposure is likely to cause permanent death from lung disease.    Children often suffer from a disproportionate burden of ozone related health impacts because their lungs and other organs are still developing. Nearly 26 million people have asthma in the United States, including 7.1 million children.    Fortunately over 40 years ago, Congress passed the Clean Air Act to protect public health and the environment.    Recently, EPA proposed new national air quality standards for ozone to lower the ozone in the atmosphere from 75 ppb to a range of 65 to 70 ppb by the year 2030. The Clean Power Plan has also been proposed in order to limit the amount of carbon pollution power plants will emit. Likewise, the Waters of the United States rule was proposed to clarify which bodies of water are or are not covered by the Clean Water Act.    History tells us that environmental regulations do not cause an economic calamity. In fact, in the past 40 years, the CDP has increased by 212 percent since the Clean Air and Clean Water Acts were enacted.    Clean air pollutions have decreased by 70 percent. Instead of killing jobs, as some opponents have claimed, the pollution control industry has generated more than $300 billion in revenue and $44 billion in exports and supported 1.5 million jobs.    None of the inflated costs of implementing these laws ever materialized. Industry innovation improved and thrived in response to new demands.    In closing, there have been numerous processes in the past few decades to clean up the air and water but more work is necessary to adequately protect public health from ozone, excessive carbon dioxide and water pollution and to mitigate the efforts of climate change.    I hope that we look at this industry and recognize the oppositions of some industries based on really scare mongering. History shows us that cleaning the air and water are both good for public health, good for our economy and good for our country.    Thank you.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>412270</t>
   </si>
   <si>
+    <t>Chaffetz</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Chaffetz. Thank you. I thank you for being the chairwoman of this committee. We reconfigured this to give some focus not only between the Department of Interior but also the Forest Service, the Department of Energy and the EPA so that we, as the oversight committee, can look at the far reaching breadth rather than just have it siloed in one committee or another.    I appreciate all the members who will participate on these panels and in all these discussions.    I too am from the intermountain west. We are proud neighbors of Wyoming. Where we produce a lot of this energy. We have an abundance of coal, natural gas and oil shale. Yet every time I turn around, there seems to be some reason, some other implication that is put out there by the EPA.    We love the west; we love our mountains, our air, our water and our streams. I do think there is a role to create some bounds and rules of the road, but I do worry about how severe the EPA is in its approach.    It wasn t too long ago in this very room we found out that the person heading up Air and Water Quality, one of the most senior people at the EPA, we had a hearing, he had not shown up for work in years. He was convicted of fraud and is in jail. He had to pay hundreds of thousands of dollars in restitution to the government because he was telling his senior leadership that he was a CIA agent and that he was overseas in Afghanistan.    It begs the question, if he was so fraudulent that he actually went to jail, what about all the regulations that came into place for air and water quality during that time. It does beg the question.    We have had the Inspector General here talking about the problems they have with sexual harassment in the senior-most offices. We have had people here talking about the fact that they cannot seem to fire anyone and move them out the door.    Time and time again, the EPA has routinely been here talking about all these problems with mismanagement and waste. Yet, they want to go into our States and start telling people how to conduct their business.    Again, we need clean coal and good energy. I buy that. Let us also understand that there are very real impacts upon economies, jobs and peoples livelihoods. Their job role and responsibility is not to just shutdown everyone.    I really appreciate the panel who I think can give us a much broader scope and understanding of all the ramifications that come into place when you have the EPA come in. I appreciate the Attorney Generals who have taken time out of their busy schedule to give us their perspective from across the United States.    I look forward to some robust discussions today. I have great optimism for this panel and this subcommittee moving forward.    With that, I yield back.</t>
   </si>
   <si>
@@ -82,6 +103,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Fox</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Fox. Chairman Lummis, Congresswoman Lawrence and members of the committee, thank you for inviting me to speak here today.    I am Tim Fox, the Attorney General of Montana. Without hopefully offending any of the other members of the committee, Congresswoman Lawrence, you will be glad to hear that I am Detroit Tigers fan--go Tigers.    I will speak briefly this morning of my concerns with three regulatory initiatives by the United States Environmental Protection Agency. Two are rulemaking proposals and one involves an unprecedented action by EPA to exercise a preemptive veto of a Section 404 permit.    In a proposal published in the Federal Register on April 21, 2014, EPA proposes to amend the definition of ``waters of the U.S.'' in such a way that would extend the reach of the Clean Water Act to virtually all interState and intraState waters and all lands which could potentially affect such waters.    Montana is, for the most part, a headwater State, blessed with waters of exceptional quality. The people of Montana have taken steps to fully protect that priceless resource. Those steps begin with our State Constitution which provides comprehensive protections for our waters.    We have implemented those constitutional safeguards through the 1971 Montana Water Quality Act and regulations to implement the Act. Based on its Water Quality Act, Montana sought and was granted primacy to implement the Clean Water Act s permit system in the State but even beyond the permit protections, the Montana DEQ has broad authority to prevent pollution.    The point is that Montana has taken primary responsibility for its land and waters as was assumed by Congress when it enacted the Clean Water Act. There is no justification for extending the reach of the Clean Water Act in our State.    The overreach impinges indirectly on our State's sovereignty and offends Congress Stated intention in the Clean Water Act to recognize, protect and preserve the primary rights of the States to manage their lands and water resources.    The second problematic proposed rule is EPAs June 18, 2014 existing source proposal under Section 111(d) of the Clean Air Act. I join the Attorneys General of 16 other States in comments on that proposal, but I also filed separate comments with Chairman Darrin Old Coyote of the Crow Nation. I want to talk just a minute about those comments.    I grew up Hardin, Montana on the Crow Reservation and developed a deep appreciation both for the Crow people and the problems they faced and continue to face. The Crow Nation has huge, undeveloped coal reserves and one operating mine, the Absaloka Mine which provides two-thirds of the Crow Nation's annual non-Federal budget and is by far the largest private employer on the reservation.    Unfortunately, one of the very likely effects of EPA's existing source rule would be to kill the market for the coal produced by the Absaloka Mine which is nearly all sold to Minnesota utilities. This will in turn kill the mine, in turn causing drastic loss of services and employment on the Crow Reservation.    EPA has a legal duty under Executive Order 13175 to ensure meaningful and timely input by tribal officials in the development of regulatory proposals that affect tribes. Aside from two ``Dear Tribal Leader'' form letters, nobody from the agency contacted the Crow Nation directly in a government to government contact as required by Executive Order 13175 and the Presidential Memo which implements the Order.    Given the consequences of the proposed rule to the Crow Nation, this doesn't seem a sufficient effort on the part of     Third and last, the matter I want to address today is EPA's involvement and their actions relating to the proposed Pebble Mine project in Alaska.    In 1979, the EPA promulgated a rule providing the Administrator could prohibit the specification of a site under Section 404(c) before a permit application has been submitted to or approved by the Corps or a State.    This authority up to now has never been used to issue a preemptive veto. However, last year, the EPA proposed to use the authority to issue a preemptive veto before any formal application for a permit had been prepared or filed by the developer of the Pebble project.    As Montana's chief legal officer, it greatly concerns me that we can see a situation in our State where the Administrator of a Federal agency preemptively vetoes a development proposal before we have an opportunity to receive, review and comment on an application for permit.    Chairman Lummis, Congresswoman Lawrence and members of the committee, thank you again for giving me some time here today to speak on behalf of the people of Montana. I have submitted a more comprehensive written testimony for your consideration.    I am happy to answer any questions you may have. Thank you.</t>
   </si>
   <si>
@@ -94,12 +118,18 @@
     <t xml:space="preserve">    Ms. Lummis. That was one of my favorite places. I have pictures at the Purple Cow.    The chair now recognizes the Attorney General of the State of Arkansas, Ms. Rutledge, for 5 minutes.</t>
   </si>
   <si>
+    <t>Rutledge</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Rutledge. Chairman Lummis, Ranking Member Lawrence and members of the committee, thank you for inviting me to speak with you all today.    My name is Leslie Rutledge, Arkansas Attorney General. I am here today to give you a sense of our State, one that is rich in natural heritage and is known across the Nation as the natural State for rolling hills, dense woodlands, miles of rivers and lakes and how they will be impacted by overreaching regulations of the Environmental Protection Agency.    Specifically, the EPA exceeds its legal authority in three recently proposed rules: the Clean Power Plan, more stringent ground level ozone standards and changes to the definitions of the waters of the United States.    As Attorney General, I represent the interests of Arkansas utility rate payers. These are hardworking Arkansans, some who own their own small businesses, some run multigenerational family farms from Fayetteville to Warren to Texarkana to Jonesboro, and all points in between. I have heard grave concern about the EPA's proposed Clean Power Plan.    The rule requires Arkansas to meet an almost 45 percent reduction in carbon emissions from electric generating units by 2030. This is the sixth highest rate of reduction in the Nation imposed upon a State that ranks 46th in per capita income.    This is a rule that the EPA does not have the legal authority to issue. The EPA regulates coal-fired power plants such as the one in Independence County, where I grew up, under Section 112 of the Clean Air Act, not Section 111(b).    The law cannot be clearer. It specifically prohibits the EPA from invoking 111(b) where the source category is regulated under Section 112. The proposed rule mandates what each State must achieve rather than providing guidelines and procedures for States to use. This is a serious overreach of the EPA's authority and different from the implementation of any other limits set under the Clean Air Act.    My opposition to this rule begs the question whether I am for clean air. I certainly am and I can confidently say that all Arkansans are in favor of clean air.    The rule goes beyond the EPA's authority to regulate air pollution. It imposes a misguided, national energy policy and seeks to control the State's regulation of energy generation and usage.    Also, under the Clean Air Act, the EPA has proposed unnecessarily stringent ground level ozone standards. The proposed rule reduces the current standard of 75 ppm to somewhere between 60 to 70 ppm. A decrease to 60 ppm will have a devastating effect on Arkansas. At that level, almost all of Arkansas would likely be in non-attainment.    Anyone who has visited Arkansas would be hard pressed to believe that our beautiful mountains have a smog problem. Years of nonattainment would directly set back economic recovery that we have achieved in the past few years.    Likewise, the EPA's attempt to clarify the definition of the waters of the U.S. is so expansive that it would likely control land use activities over most of the United States. As Arkansas Attorney General, this is a major concern for me because this would drastically impact our farmers and ranchers.    Rather than clarifying, the rule complicates current law. The process for determining jurisdiction becomes a maize for both regulators and for the public to navigate. Arkansas' agricultural community would be left with increased uncertainty over the Clean Water Act.    Agriculture is essential to our economy. According to the Arkansas Farm Bureau, agriculture provides $16 billion annually and one out of every six jobs in the State.    While the EPA and the U.S. Army Corps of Engineers have repeatedly offered verbal assurances that agriculture need not worry about the scope of the proposed definition of waters of the United States, farmers in Arkansas worry because of the actions of agencies, not their words.    For example, in 2014, the Corps took action against a Tennessee row crop farm determining that a field was considered waters of the U.S. Arkansas farmers worry that every day activities such as plowing and applying fertilizer and pesticides will subject them, just like our neighboring State of Tennessee, to Federal jurisdiction under the Clean Water Act.    While each of these rules would cause great harm to Arkansas on their own, the cumulative effect cannot be overStated. This Administration is intent on following an agenda that ignores the plain language passed by Congress and has created a perfect storm of Federal regulation that will result in economic disaster for Arkansas.    Arkansans believe in protecting our environment. We take great pride in being the natural State and take pride in supplying the world with food and growing jobs in our State.    I thank Chairman Lummis, Ranking Member Lawrence and other members of the committee for the opportunity to address you all today. I welcome your questions. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Lummis. Thank you, Attorney General Rutledge.    Before I recognize Dr. Smith, it appears we may be interrupted by votes. We will hear the entirety of Dr. Smith's opening Statement for 5 minutes. If votes have been called, then we will take a break for about 25 minutes while the members of the committee vote and return to hear the opening Statements of Drs. Harrison and Tierney.    With that, Dr. Smith, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Smith. Thank you, Chairwoman Lummis, Ranking Member Lawrence and other members of the committee. Thank you for the invitation to speak at this hearing.    I am Anne Smith of NERA Economic Consulting. My testimony today is my own and does not represent the position of my company or any of my clients.    This hearing is about the impacts of EPA regulations. I will address some insights and issues about the comparisons of the benefits and the costs of two major regulations EPA is presently proposing.    The first, the Clean Power Plan, is to reduce electricity sector emissions of carbon dioxide. The other is a tightening of the ozone national ambient air quality standard, NAAQS.    My colleague to my left, Dr. Harrison, will be testifying on high costs of these regulations and analyses we have done together at NERA. I agree with all that he will have to say.    I am going to focus on EPA's own estimates of the benefits of these two rules and how they compare to costs. For these comparisons, I will only use EPA's own lower cost estimates.    My bottom line is that EPA's analyses of both rules offer a far weaker case that the benefits of those rules will exceed their costs than one would believe from listening to EPA's press releases or reading the regulatory impact analyses.    First, for the Clean Power Plan, EPA's comparisons of the costs and benefits of the CPP falsely suggest that climate benefits will exceed costs during the period of implementation, 2020 to 2030.    When correctly presented, EPA's own estimates reveal that it finds the CPP will cost more than $180 billion by 2030, in present value terms and that the present value of its cumulative climate benefits are not expected to exceed that $180 billion of cost until more than 100 years later.    Furthermore, EPA's estimates of those climate benefits are global benefits, all countries of the world and the benefits to the U.S., including future U.S. generations, not just current U.S. generations, are not expected to exceed that rule's costs, even under the most pessimistic projections of potential climate impacts that EPA is using in its regulatory impact analysis.    I will now turn to the proposed ozone NAAQS revision. At tightening of the current ozone NAAQS could be much more expensive than the proposed Clean Power Plan. Yet, for this rule, EPA does not estimate this rule's ozone-related benefits will exceed its costs, even using EPA's own cost estimates.    How then can EPA claim that the benefits of the ozone NAAQS will ``outweigh it's cost by as much as three to one?'' The answer is, they pad the benefits estimates with so-called co-benefits. Co-benefits are estimates of benefits based on projections of coincidental changes in a completely different pollutant than ozone, a completely different pollutant than the target of the regulation.    These are coincidental reductions projected to occur in fine particulate matter, PM2.5, which are the subject of their own regulatory coverage under NAAQS.    EPA has a long tradition of making rules appear to have benefits that exceed their costs by adding such massive doses of co-benefits from PM2.5. In fact, these co-benefits also appear in the benefit cost analysis for the CPP, the climate rule we are talking about.    The thousands of premature deaths and the hundreds of thousands of avoided asthma attacks that EPA has claimed for that climate rule are based on PM2.5 co-benefits. They have nothing to do with climate benefit estimates whatsoever.    I have written and testified previously on the problems with what I have called EPA's co-benefits habit. I reference the writing of that discussed in my written testimony.    To summarize briefly, even the Administrator s Statements about the health benefits of PM2.5 imply that these co-benefits may not exist at all. That is because they are based on changes in PM2.5 concentrations that are already below the protected level of the PM2.5 ambient air quality standard.    But, even if they did exist, they should not be used to promote regulations that have nothing to do with PM2.5 such as these two EPA proposals I have talked about which are intended not to reduce PM2.5 but to deal with climate impacts and ozone exposures.    Using co-benefits in this way is a recipe for creating economically inefficient policies for managing those purported risks of PM2.5 while it also misleads the public on the need for more costly regulations of these other two pollutants.    Thank you very much for your attention. I will answer questions later if you are interested.</t>
   </si>
   <si>
@@ -109,6 +139,9 @@
     <t xml:space="preserve">    Ms. Lummis. I thank the panel for its patience with our leave of absence to be voting on the floor.    Our next witness is Dr. Harrison. Thank you for being here. We look forward to hearing from you. The floor is yours, Dr. Harrison.</t>
   </si>
   <si>
+    <t>Harrison</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Harrison. Thank you, Chairwoman Lummis and members of the subcommittee. Thank you for the opportunity to participate in today's hearings.    I am Dr. David Harrison, Jr. My testimony is my own and does not represent my company or any client.    My comments on the economic impacts of EPA regulations are based on two recent NERA studies. One related to the national ambient air quality standard for ozone and one related to EPA's proposed Clean Power Plan to reduce carbon dioxide emissions from the electric utility sector.    Both studies indicate that these two major environmental policies could have very substantial economic impacts on individual States and on the U.S. as a whole. Let me start with the ozone study.    My written testimony is based on a July 2014 study we did, but today we released an update that reflects EPA's November 2014 ozone proposal. I believe you have received copies of that. I would like to request that it be entered into the record.</t>
   </si>
   <si>
@@ -121,6 +154,9 @@
     <t xml:space="preserve">    Ms. Lummis. Thank you for your testimony, Dr. Harrison.    I would now like to recognize Dr. Tierney for 5 minutes. Welcome, Dr. Tierney.</t>
   </si>
   <si>
+    <t>Tierney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Tierney. Thank you so much, Chairman Lummis, Ranking Member Lawrence and subcommittee members. It is very nice to be here today. Thank you very much.    As you know, the EPA has responsibility under the Clean Air Act and the Clean Water Act to protect the public from harmful discharges of pollutants into the Nation's air and waterways.    In the decade since these Federal laws were enacted, they have led to improvements in the public s health and protected the Nation's natural resources on which our entire economy depends. As scientific information has evolved over time, as has technology, so has the administration of these Federal laws.    I am a former Environmental Secretary and energy regulator in the State of Massachusetts where I was appointed by both Republicans and Democrats. I have direct familiarity with administering Federal and State laws to protect the environment and energy markets.    Since leaving government, I have been a consultant and worked for a wide variety of clients looking at energy markets, State environmental laws, Federal environmental laws, local economies and impacts on consumers of a variety of different public policies.    The three proposed EPA regulations under discussion today are important regulations from a public health point of view, but are also important for local economies and economic development.    First, clarifying the scope of Federal jurisdictions and consistency of treatment of waterways across the Nation helps to provide appropriate signals to private actors about what they can expect when States review their economic development activities. Lack of clear rules is known to chill economic development.    Second, ensuring that ozone standards remain up to date and consistent with the evolving State of knowledge in the scientific community is critically important for public health and for local economies as well.    Economic impact analyses that fail to look at the benefits to public health are inherently inconsistent with what the ozone standard is all about, which is public health.    Third, the rest of my testimony will focus on the EPA's proposed Clean Power Plan. The EPA is required to establish emissions controls on the power sector. In doing so, the EPA has adopted a regulatory approach that offers significant flexibility to the States to fashion their own plans to control emissions from power plants in ways that work well for their economies.    Having a reliable and efficient electric industry is critically important for Americans and the U.S. economy and so is addressing carbon pollution. In that context, the EPA's proposal is critically important.    The Supreme Court has said that greenhouse gases are an air pollutant under the Clean Air Act. The American power sector represents the Nation's largest source of greenhouse gas emissions. Americans are feeling the effects of costly climate change already.    The power sector in the United States emits 1 out of every 15 tons of pollutants anywhere in the globe. It is a major source of the global warming emissions and is costly for climate change.    Equally important is assurance that the electric system is reliable and it is affordable. Fortunately, EPA's proposal allows States to adopt approaches that minimize the Clean Power Plan's cost to consumers.    In the past year, I have co-authored three reports on EPA's proposed impacts on consumers and electric system reliability. In researching the newest one of those reports, which we issued last week and which I have attached to my testimony, my colleagues and I read a significant number of the comments that have been filed on the EPA's proposal.    We found that many studies and comments incorrectly presume that the rule will be inflexibly implemented, which is opposite to the way it has been designed. The assumptions are worse case scenarios and assume that the private sector will idlely stand by as will regulators rather than doing their jobs to make sure the impacts are at least cost and that there are reliable outcomes. There is no historical basis for those sets of assumptions.    The issues will be solved by a dynamic interplay of actions by regulators and market participants with solutions proceeding in parallel. Indeed, this dynamic interplay is the reason why a recent survey of 400 utility executives in the United States said they support the proposed Clean Power Plan and the emissions targets.    Finally, the electric industry is undergoing major change as we know. Those changes are from the shale gas revolution, its price pressure on coal in many parts of the country, the domestic supply of renewable energy in vast parts of the United States, aging infrastructure and a significant growth in energy productivity.    These shifts are underway and are causing enormous changes in the industry. Had the EPA never proposed the Clean Power Plan, we would be seeing many and the same kinds of directions we are seeing in the U.S. electric sector in any event.    Thank you very much.</t>
   </si>
   <si>
@@ -157,6 +193,9 @@
     <t xml:space="preserve">    Ms. Lummis. I thank the panel.    The Chair now recognizes the gentleman from Pennsylvania, Mr. Cartwright, for 5 minutes.</t>
   </si>
   <si>
+    <t>Cartwright</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cartwright. Thank you, Madam Chairwoman.    Dr. Harrison, thank you for appearing before us today. I had a couple of questions for you.    You said you are appearing today expressing your own opinions and those of nobody else, is that correct?</t>
   </si>
   <si>
@@ -241,6 +280,12 @@
     <t>412650</t>
   </si>
   <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Madam Chair.    Dr. Tierney, are you aware that over 4,000 American eagles, red tail hawks, American kestrels and burrowing owls are killed every year by wind turbines?</t>
   </si>
   <si>
@@ -304,6 +349,12 @@
     <t>412659</t>
   </si>
   <si>
+    <t>Plaskett</t>
+  </si>
+  <si>
+    <t>Stacey</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Plaskett. Good afternoon and thank you very much, Madam Chair.    Thank you, testifiers for being here.    I think it is very interesting and should be noted for the record that the EPA is not here for this hearing because we are in a proposed rulemaking position and therefore, it would be inappropriate for them at this time to testify on this matter. I think we need to reflect on the fact these are proposals as yet and not, in fact, rules.    It appears this is not a new issue and there is a lot of rhetoric in the industry right now about the EPA's proposed Clean Water Power Plan, the ozone regulations killing jobs, and excessively raising industry compliance costs. Ms. Rutledge talked about a perfect storm.    These sky is falling claims don't appear to be new. As a matter of fact, I have from June 2014, which I would like to submit to the record, a fact sheet prepared under Ranking Member Henry Waxman which gives facts on the Clean Air track record and pollution reductions.    Since its adoption in 1970, there has been a reduction in key air pollutants by over 70 percent while the economy has more than tripled in size.    Dr. Tierney, do you think the economic predictions currently used by the industry regarding clean power plant and ozone rules are reasonable?</t>
   </si>
   <si>
@@ -349,6 +400,12 @@
     <t>412397</t>
   </si>
   <si>
+    <t>Gosar</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Gosar. Thank you, Madam Chair.    Dr. Tierney, is CO2 a pollutant?</t>
   </si>
   <si>
@@ -512,6 +569,12 @@
   </si>
   <si>
     <t>412608</t>
+  </si>
+  <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Gary</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Madam Chair.    Dr. Tierney, I want to ask you some questions about how you intend to enforce, say, the water rule, how aggressive you are going to be on that?</t>
@@ -1103,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H238"/>
+  <dimension ref="A1:I238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,7 +1174,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,5693 +1196,6637 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G34" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G44" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G47" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G48" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G49" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G50" t="s">
+        <v>59</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G51" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G53" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G55" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G56" t="s">
+        <v>59</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G58" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G60" t="s">
+        <v>59</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G62" t="s">
+        <v>59</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>74</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G64" t="s">
+        <v>88</v>
+      </c>
       <c r="H64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G66" t="s">
+        <v>88</v>
+      </c>
       <c r="H66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>74</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G68" t="s">
+        <v>88</v>
+      </c>
       <c r="H68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>74</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G70" t="s">
+        <v>88</v>
+      </c>
       <c r="H70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>74</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G72" t="s">
+        <v>88</v>
+      </c>
       <c r="H72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>74</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G74" t="s">
+        <v>88</v>
+      </c>
       <c r="H74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>74</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G76" t="s">
+        <v>88</v>
+      </c>
       <c r="H76" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>74</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G78" t="s">
+        <v>88</v>
+      </c>
       <c r="H78" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G79" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>74</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G80" t="s">
+        <v>88</v>
+      </c>
       <c r="H80" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G81" t="s">
+        <v>41</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>74</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G82" t="s">
+        <v>88</v>
+      </c>
       <c r="H82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
       <c r="H83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>95</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G84" t="s">
+        <v>111</v>
+      </c>
       <c r="H84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>95</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G86" t="s">
+        <v>111</v>
+      </c>
       <c r="H86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G87" t="s">
+        <v>41</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>95</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G88" t="s">
+        <v>111</v>
+      </c>
       <c r="H88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G89" t="s">
+        <v>41</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>95</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G90" t="s">
+        <v>111</v>
+      </c>
       <c r="H90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G91" t="s">
+        <v>41</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>95</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G92" t="s">
+        <v>111</v>
+      </c>
       <c r="H92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G93" t="s">
+        <v>41</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>95</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G94" t="s">
+        <v>111</v>
+      </c>
       <c r="H94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>95</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G96" t="s">
+        <v>111</v>
+      </c>
       <c r="H96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>110</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G98" t="s">
+        <v>128</v>
+      </c>
       <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>110</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G100" t="s">
+        <v>128</v>
+      </c>
       <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>110</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G102" t="s">
+        <v>128</v>
+      </c>
       <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G103" t="s">
+        <v>29</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>110</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G104" t="s">
+        <v>128</v>
+      </c>
       <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G105" t="s">
+        <v>29</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>110</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G106" t="s">
+        <v>128</v>
+      </c>
       <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G107" t="s">
+        <v>34</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>110</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G108" t="s">
+        <v>128</v>
+      </c>
       <c r="H108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G109" t="s">
+        <v>34</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>110</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G110" t="s">
+        <v>128</v>
+      </c>
       <c r="H110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G111" t="s">
+        <v>34</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>110</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G112" t="s">
+        <v>128</v>
+      </c>
       <c r="H112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G113" t="s">
+        <v>29</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>110</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G114" t="s">
+        <v>128</v>
+      </c>
       <c r="H114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>110</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G116" t="s">
+        <v>128</v>
+      </c>
       <c r="H116" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>110</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G118" t="s">
+        <v>128</v>
+      </c>
       <c r="H118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>110</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G120" t="s">
+        <v>128</v>
+      </c>
       <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>110</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G122" t="s">
+        <v>128</v>
+      </c>
       <c r="H122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I122" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G123" t="s">
+        <v>46</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>110</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G124" t="s">
+        <v>128</v>
+      </c>
       <c r="H124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I124" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G125" t="s">
+        <v>29</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>110</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G126" t="s">
+        <v>128</v>
+      </c>
       <c r="H126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G127" t="s">
+        <v>29</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>110</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G128" t="s">
+        <v>128</v>
+      </c>
       <c r="H128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G129" t="s">
+        <v>34</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>110</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G130" t="s">
+        <v>128</v>
+      </c>
       <c r="H130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I130" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>110</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G132" t="s">
+        <v>128</v>
+      </c>
       <c r="H132" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G133" t="s">
+        <v>29</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>110</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G134" t="s">
+        <v>128</v>
+      </c>
       <c r="H134" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I134" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G135" t="s">
+        <v>46</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>110</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G136" t="s">
+        <v>128</v>
+      </c>
       <c r="H136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G137" t="s">
+        <v>46</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>110</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G138" t="s">
+        <v>128</v>
+      </c>
       <c r="H138" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I138" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G139" t="s">
+        <v>46</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>110</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G140" t="s">
+        <v>128</v>
+      </c>
       <c r="H140" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I140" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G141" t="s">
+        <v>46</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>110</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G142" t="s">
+        <v>128</v>
+      </c>
       <c r="H142" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I142" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G143" t="s">
+        <v>46</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>110</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G144" t="s">
+        <v>128</v>
+      </c>
       <c r="H144" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I144" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G145" t="s">
+        <v>46</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>110</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G146" t="s">
+        <v>128</v>
+      </c>
       <c r="H146" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I146" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G147" t="s">
+        <v>46</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>110</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G148" t="s">
+        <v>128</v>
+      </c>
       <c r="H148" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I148" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G149" t="s">
+        <v>46</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>110</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G150" t="s">
+        <v>128</v>
+      </c>
       <c r="H150" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I150" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
       <c r="H151" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>165</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G152" t="s">
+        <v>185</v>
+      </c>
       <c r="H152" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I152" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>21</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G153" t="s">
+        <v>46</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>165</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G154" t="s">
+        <v>185</v>
+      </c>
       <c r="H154" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I154" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>21</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G155" t="s">
+        <v>46</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>165</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G156" t="s">
+        <v>185</v>
+      </c>
       <c r="H156" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I156" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G157" t="s">
+        <v>46</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>165</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G158" t="s">
+        <v>185</v>
+      </c>
       <c r="H158" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I158" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>21</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G159" t="s">
+        <v>46</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>165</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G160" t="s">
+        <v>185</v>
+      </c>
       <c r="H160" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I160" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>21</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G161" t="s">
+        <v>46</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>165</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G162" t="s">
+        <v>185</v>
+      </c>
       <c r="H162" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I162" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>21</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G163" t="s">
+        <v>46</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>165</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G164" t="s">
+        <v>185</v>
+      </c>
       <c r="H164" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I164" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>21</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G165" t="s">
+        <v>46</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>165</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G166" t="s">
+        <v>185</v>
+      </c>
       <c r="H166" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I166" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
       <c r="H167" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>18</v>
+      </c>
       <c r="H168" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I168" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>21</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G169" t="s">
+        <v>46</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>18</v>
+      </c>
       <c r="H170" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I170" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G171" t="s">
+        <v>46</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G172" t="s">
+        <v>18</v>
+      </c>
       <c r="H172" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I172" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G173" t="s">
+        <v>46</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G174" t="s">
+        <v>18</v>
+      </c>
       <c r="H174" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I174" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G175" t="s">
+        <v>13</v>
+      </c>
       <c r="H175" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>21</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G176" t="s">
+        <v>37</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
       <c r="H177" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I177" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>21</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G178" t="s">
+        <v>37</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
       <c r="H179" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>21</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G180" t="s">
+        <v>34</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G181" t="s">
+        <v>29</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>13</v>
+      </c>
       <c r="H182" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>14</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G183" t="s">
+        <v>18</v>
+      </c>
       <c r="H183" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I183" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>21</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G184" t="s">
+        <v>46</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>14</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G185" t="s">
+        <v>18</v>
+      </c>
       <c r="H185" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I185" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>21</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G186" t="s">
+        <v>46</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>14</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G187" t="s">
+        <v>18</v>
+      </c>
       <c r="H187" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I187" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
       <c r="H188" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>110</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G189" t="s">
+        <v>128</v>
+      </c>
       <c r="H189" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I189" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>21</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G190" t="s">
+        <v>37</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>110</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G191" t="s">
+        <v>128</v>
+      </c>
       <c r="H191" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I191" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>21</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G192" t="s">
+        <v>37</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>110</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G193" t="s">
+        <v>128</v>
+      </c>
       <c r="H193" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I193" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>21</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G194" t="s">
+        <v>37</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>110</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G195" t="s">
+        <v>128</v>
+      </c>
       <c r="H195" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I195" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>21</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G196" t="s">
+        <v>37</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>110</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G197" t="s">
+        <v>128</v>
+      </c>
       <c r="H197" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I197" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>21</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G198" t="s">
+        <v>29</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>110</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G199" t="s">
+        <v>128</v>
+      </c>
       <c r="H199" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I199" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>21</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G200" t="s">
+        <v>29</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>110</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G201" t="s">
+        <v>128</v>
+      </c>
       <c r="H201" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I201" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>21</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G202" t="s">
+        <v>29</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>110</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G203" t="s">
+        <v>128</v>
+      </c>
       <c r="H203" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I203" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>21</v>
-      </c>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G204" t="s">
+        <v>29</v>
+      </c>
+      <c r="H204" t="s"/>
+      <c r="I204" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>110</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G205" t="s">
+        <v>128</v>
+      </c>
       <c r="H205" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I205" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>21</v>
-      </c>
-      <c r="G206" t="s"/>
-      <c r="H206" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G206" t="s">
+        <v>29</v>
+      </c>
+      <c r="H206" t="s"/>
+      <c r="I206" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>110</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G207" t="s">
+        <v>128</v>
+      </c>
       <c r="H207" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I207" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>21</v>
-      </c>
-      <c r="G208" t="s"/>
-      <c r="H208" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G208" t="s">
+        <v>29</v>
+      </c>
+      <c r="H208" t="s"/>
+      <c r="I208" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>110</v>
-      </c>
-      <c r="G209" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G209" t="s">
+        <v>128</v>
+      </c>
       <c r="H209" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I209" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>21</v>
-      </c>
-      <c r="G210" t="s"/>
-      <c r="H210" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G210" t="s">
+        <v>34</v>
+      </c>
+      <c r="H210" t="s"/>
+      <c r="I210" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>110</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G211" t="s">
+        <v>128</v>
+      </c>
       <c r="H211" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I211" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>21</v>
-      </c>
-      <c r="G212" t="s"/>
-      <c r="H212" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G212" t="s">
+        <v>34</v>
+      </c>
+      <c r="H212" t="s"/>
+      <c r="I212" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>110</v>
-      </c>
-      <c r="G213" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G213" t="s">
+        <v>128</v>
+      </c>
       <c r="H213" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I213" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>21</v>
-      </c>
-      <c r="G214" t="s"/>
-      <c r="H214" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G214" t="s">
+        <v>34</v>
+      </c>
+      <c r="H214" t="s"/>
+      <c r="I214" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>110</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G215" t="s">
+        <v>128</v>
+      </c>
       <c r="H215" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I215" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>21</v>
-      </c>
-      <c r="G216" t="s"/>
-      <c r="H216" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G216" t="s">
+        <v>29</v>
+      </c>
+      <c r="H216" t="s"/>
+      <c r="I216" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>110</v>
-      </c>
-      <c r="G217" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G217" t="s">
+        <v>128</v>
+      </c>
       <c r="H217" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I217" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>11</v>
-      </c>
-      <c r="G218" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G218" t="s">
+        <v>13</v>
+      </c>
       <c r="H218" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I218" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>21</v>
-      </c>
-      <c r="G219" t="s"/>
-      <c r="H219" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G219" t="s">
+        <v>59</v>
+      </c>
+      <c r="H219" t="s"/>
+      <c r="I219" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>21</v>
-      </c>
-      <c r="G220" t="s"/>
-      <c r="H220" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G220" t="s">
+        <v>46</v>
+      </c>
+      <c r="H220" t="s"/>
+      <c r="I220" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>21</v>
-      </c>
-      <c r="G221" t="s"/>
-      <c r="H221" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G221" t="s">
+        <v>59</v>
+      </c>
+      <c r="H221" t="s"/>
+      <c r="I221" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>21</v>
-      </c>
-      <c r="G222" t="s"/>
-      <c r="H222" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G222" t="s">
+        <v>46</v>
+      </c>
+      <c r="H222" t="s"/>
+      <c r="I222" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>21</v>
-      </c>
-      <c r="G223" t="s"/>
-      <c r="H223" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G223" t="s">
+        <v>59</v>
+      </c>
+      <c r="H223" t="s"/>
+      <c r="I223" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>11</v>
-      </c>
-      <c r="G224" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G224" t="s">
+        <v>13</v>
+      </c>
       <c r="H224" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I224" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>21</v>
-      </c>
-      <c r="G225" t="s"/>
-      <c r="H225" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G225" t="s">
+        <v>59</v>
+      </c>
+      <c r="H225" t="s"/>
+      <c r="I225" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>11</v>
-      </c>
-      <c r="G226" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G226" t="s">
+        <v>13</v>
+      </c>
       <c r="H226" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I226" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>21</v>
-      </c>
-      <c r="G227" t="s"/>
-      <c r="H227" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G227" t="s">
+        <v>59</v>
+      </c>
+      <c r="H227" t="s"/>
+      <c r="I227" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>11</v>
-      </c>
-      <c r="G228" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G228" t="s">
+        <v>13</v>
+      </c>
       <c r="H228" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I228" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F229" t="s">
-        <v>95</v>
-      </c>
-      <c r="G229" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G229" t="s">
+        <v>111</v>
+      </c>
       <c r="H229" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I229" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F230" t="s">
-        <v>21</v>
-      </c>
-      <c r="G230" t="s"/>
-      <c r="H230" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G230" t="s">
+        <v>46</v>
+      </c>
+      <c r="H230" t="s"/>
+      <c r="I230" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F231" t="s">
-        <v>95</v>
-      </c>
-      <c r="G231" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G231" t="s">
+        <v>111</v>
+      </c>
       <c r="H231" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I231" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F232" t="s">
-        <v>21</v>
-      </c>
-      <c r="G232" t="s"/>
-      <c r="H232" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G232" t="s">
+        <v>46</v>
+      </c>
+      <c r="H232" t="s"/>
+      <c r="I232" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F233" t="s">
-        <v>95</v>
-      </c>
-      <c r="G233" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G233" t="s">
+        <v>111</v>
+      </c>
       <c r="H233" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I233" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E234" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F234" t="s">
-        <v>11</v>
-      </c>
-      <c r="G234" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G234" t="s">
+        <v>13</v>
+      </c>
       <c r="H234" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I234" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E235" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F235" t="s">
-        <v>11</v>
-      </c>
-      <c r="G235" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G235" t="s">
+        <v>13</v>
+      </c>
       <c r="H235" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I235" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E236" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F236" t="s">
-        <v>14</v>
-      </c>
-      <c r="G236" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G236" t="s">
+        <v>18</v>
+      </c>
       <c r="H236" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I236" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E237" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F237" t="s">
-        <v>21</v>
-      </c>
-      <c r="G237" t="s"/>
-      <c r="H237" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G237" t="s">
+        <v>29</v>
+      </c>
+      <c r="H237" t="s"/>
+      <c r="I237" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E238" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F238" t="s">
-        <v>11</v>
-      </c>
-      <c r="G238" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G238" t="s">
+        <v>13</v>
+      </c>
       <c r="H238" t="s">
-        <v>246</v>
+        <v>14</v>
+      </c>
+      <c r="I238" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
